--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>جل باهى اسود - 40 جم</t>
-  </si>
-  <si>
-    <t>بلوكس وفير محشو كريمة بطعم الفانليا حجم جديد- 10 جنية</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+    <t>مكرونة بساطة اسباجيتى - 350 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,70 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12871</v>
+        <v>7702</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>165.25</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>22908</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>603</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22908</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>50.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>24566</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>96.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة بساطة اسباجيتى - 350 جم</t>
+    <t>عصير تانج مانجو ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +435,53 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7702</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>97.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>975</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>589</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>165.25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D4">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير تانج مانجو ظرف - 20 جم</t>
-  </si>
-  <si>
-    <t>بيبسى - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>اوكسي سائل أطباق  اخضر - 100 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي لافندر - 175 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>345</v>
+        <v>11765</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>97.5</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -452,36 +449,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>345</v>
+        <v>11952</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>975</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>589</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>210</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسي سائل أطباق  اخضر - 100 جم</t>
-  </si>
-  <si>
-    <t>اوكسي يدوي لافندر - 175 جم</t>
+    <t>صلصة هاينز - 360 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11765</v>
+        <v>3478</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>11952</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>صلصة هاينز - 360 جم</t>
+    <t>سمن كريستال ابيض - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 5 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +435,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3478</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>604.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>410</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3258</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>730</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سمن كريستال ابيض - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
-  </si>
-  <si>
-    <t>ارز حبوبة عريض الحبة - 5 كجم</t>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>عصير بيتى كوكتيل - 235 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,70 +432,53 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>604.5</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1124</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>2544</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3258</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>186.5</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3258</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>730</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون ناعم  - 250 جم</t>
-  </si>
-  <si>
-    <t>عصير بيتى كوكتيل - 235 مل</t>
+    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,53 +438,104 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>88</v>
+        <v>7706</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>167.75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>88</v>
+        <v>8216</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2544</v>
+        <v>378</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>144</v>
+        <v>8216</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>15.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>9081</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>62.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>9081</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1494</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>186.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>266.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
-  </si>
-  <si>
-    <t>سندة سكر - 1 كجم</t>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,104 +435,87 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7706</v>
+        <v>3558</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>167.75</v>
+        <v>28.5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8216</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>378</v>
+        <v>684</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8216</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>342</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>15.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9081</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>62.25</v>
+        <v>1368</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>9081</v>
+        <v>12925</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1494</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>11404</v>
-      </c>
-      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>266.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 550 مل</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>اوكسي يدوي لافندر - 175 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق 15 جنيه - 175 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3558</v>
+        <v>11952</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>28.5</v>
+        <v>145.25</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -452,70 +449,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3558</v>
+        <v>11953</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>684</v>
+        <v>146.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3558</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>342</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3558</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1368</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>12925</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>483</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسي يدوي لافندر - 175 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق 15 جنيه - 175 جم</t>
+    <t>زيت ثمرات خليط - 700 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11952</v>
+        <v>12924</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,27 +438,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>145.25</v>
+        <v>554</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>11953</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>146.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>زيت ثمرات خليط - 700 مل</t>
+    <t>فانتا برتقال - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 6 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +438,104 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12924</v>
+        <v>2774</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3670</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>4232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>922.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>184.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>6540</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>375.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6540</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>751</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,55 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فانتا برتقال - 1.45 لتر</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 0.95 لتر</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 6 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطع بارد - 185 جم</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطع 140 جم + 10 جم - 150 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,104 +477,444 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2774</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>181</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3670</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>1070</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>4232</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>922.5</v>
+        <v>26.75</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4232</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>184.5</v>
+        <v>267.5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6540</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>375.5</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6540</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>387</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>944</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>751</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>663</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>944</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2652</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>944</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1326</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>944</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>11</v>
+      </c>
+      <c r="D11">
+        <v>55.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2658</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>378.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2661</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>378.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2669</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>509</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2670</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>447</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2912</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2912</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3386</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>323</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3395</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3399</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>507</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3429</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2148</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3429</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1074</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3429</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>44.75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3429</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>537</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>6946</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>509</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>10254</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>475</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>زيت ثمرات خليط - 700 مل</t>
+    <t>تونة دولفين قطع بارد - 185 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس فيتا بيضاء - 250 جم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +435,87 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12924</v>
+        <v>944</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>56.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>944</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>559.75</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>2700</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>944</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1350</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>675</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3477</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>572</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تونة دولفين قطع بارد - 185 جم</t>
-  </si>
-  <si>
-    <t>جبنة رودس فيتا بيضاء - 250 جم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>مكرونة شعرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>-اريال أتوماتيك داونى - 9 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>944</v>
+        <v>13486</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>56.25</v>
+        <v>245.25</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -452,70 +449,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>944</v>
+        <v>19687</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2700</v>
+        <v>992.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>944</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>1350</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>944</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>675</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3477</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>572</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة شعرية بساطة - 1 كجم</t>
-  </si>
-  <si>
-    <t>-اريال أتوماتيك داونى - 9 كجم</t>
+    <t>صلصة هارفست ظرف - 30 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>صلصة هاينز - 360 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة ديرى ميلك بابلي اوريو - 27 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +438,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>13486</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,27 +447,95 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>245.25</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19687</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>48.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1886</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>189.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>382.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>25344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>234.75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>25344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>992.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>2817</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>صلصة هارفست ظرف - 30 جم</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
-  </si>
-  <si>
-    <t>صلصة هاينز - 360 جم</t>
-  </si>
-  <si>
-    <t>شوكولاتة ديرى ميلك بابلي اوريو - 27 جم</t>
+    <t>عصير تانج برتقال ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,104 +432,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>346</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>346</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>48.5</v>
+        <v>1050</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1886</v>
+        <v>9081</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>189.75</v>
+        <v>60.75</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3478</v>
+        <v>9081</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1458</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>382.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>25344</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>234.75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>25344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2817</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -40,7 +40,22 @@
     <t>عصير تانج برتقال ظرف - 20 جم</t>
   </si>
   <si>
-    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
+    <t>كوكا كولا - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>سبرايت - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
+  </si>
+  <si>
+    <t>مولتو ماجنم شوكولاتة بالبندق - 15 جنية</t>
+  </si>
+  <si>
+    <t>XXL مولتو شيكولاته بالبندق  - 10 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +456,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>101.25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,44 +473,112 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1050</v>
+        <v>1012.5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9081</v>
+        <v>1504</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>60.75</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9081</v>
+        <v>2497</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>191.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>222.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2805</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>137</v>
+      </c>
+      <c r="D7">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1458</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="D8">
+        <v>289.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11848</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
